--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A7F90C-DD4C-4A41-BC79-BC18B88DC03C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <sheet name="survey" sheetId="5" r:id="rId4"/>
     <sheet name="framework_translations" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="207">
   <si>
     <t>clause</t>
   </si>
@@ -605,12 +604,6 @@
     <t>forms</t>
   </si>
   <si>
-    <t>MIF</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('MIF')</t>
-  </si>
-  <si>
     <t>Choose a form</t>
   </si>
   <si>
@@ -632,80 +625,32 @@
     <t>Missing</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>Test form</t>
-  </si>
-  <si>
-    <t>Test Formulario</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('TEST')</t>
-  </si>
-  <si>
-    <t>CRIANCA</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('CRIANCA')</t>
-  </si>
-  <si>
-    <t>SES</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('SES')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woman in the fertile age </t>
-  </si>
-  <si>
-    <t>Mulher na idade fertil</t>
-  </si>
-  <si>
-    <t>Crianca</t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>CRIANCA_HOSP</t>
-  </si>
-  <si>
-    <t>Child hospitalization</t>
-  </si>
-  <si>
-    <t>MORSLIST</t>
-  </si>
-  <si>
-    <t>MORLIST</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('MORLIST')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('CRIANCA_HOSP')</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Você finalizou o questionário: &lt;/p&gt;&lt;p&gt;"{{display_field}}"&lt;/p&gt;&lt;hr&gt;</t>
   </si>
   <si>
-    <t>GRAVIDA</t>
-  </si>
-  <si>
-    <t>Pregnants</t>
-  </si>
-  <si>
-    <t>Grávidas</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('GRAVIDA')</t>
+    <t>'?' + odkSurvey.getHashString('TESTE')</t>
+  </si>
+  <si>
+    <t>TESTE</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('MADTRAIL')</t>
+  </si>
+  <si>
+    <t>MADTRAIL</t>
+  </si>
+  <si>
+    <t>MADtrail</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +667,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -764,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -779,6 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,24 +1012,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1086,24 +1040,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B793DC04-5EE8-4C44-A7FC-F90344029075}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1111,19 +1065,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1101,7 @@
         <v>20190521</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1158,7 +1112,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -1169,9 +1123,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
         <v>169</v>
@@ -1180,10 +1134,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>196</v>
-      </c>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1191,22 +1148,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39009FF4-ADCA-4F52-86FD-7941672D7DFF}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
@@ -1214,108 +1171,38 @@
         <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>192</v>
       </c>
       <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
         <v>206</v>
       </c>
-      <c r="C3" t="s">
-        <v>213</v>
-      </c>
       <c r="D3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" t="s">
         <v>202</v>
-      </c>
-      <c r="C7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1324,25 +1211,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46EC045-695E-47E3-9856-F3F6A59BF71E}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
@@ -1365,7 +1252,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>182</v>
       </c>
@@ -1373,7 +1260,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>184</v>
       </c>
@@ -1381,15 +1268,15 @@
         <v>192</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>186</v>
       </c>
@@ -1397,24 +1284,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
         <v>190</v>
@@ -1423,19 +1310,19 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
         <v>190</v>
@@ -1444,115 +1331,25 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" t="s">
-        <v>190</v>
-      </c>
-      <c r="G21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E24" t="s">
-        <v>190</v>
-      </c>
-      <c r="G24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E27" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>189</v>
-      </c>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1560,33 +1357,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A43F1AA-AE9E-40A3-94B1-695B21603B14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="43.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="56.1796875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1597,7 +1394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1619,7 +1416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1627,10 +1424,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1638,10 +1435,10 @@
         <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1649,10 +1446,10 @@
         <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1663,7 +1460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1674,7 +1471,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1685,7 +1482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1707,7 +1504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1715,10 +1512,10 @@
         <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1726,10 +1523,10 @@
         <v>44</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -1737,10 +1534,10 @@
         <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -1748,10 +1545,10 @@
         <v>48</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -1759,10 +1556,10 @@
         <v>50</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -1773,7 +1570,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1784,7 +1581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -1795,7 +1592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -1806,7 +1603,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -1817,7 +1614,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -1828,7 +1625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -1839,7 +1636,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -1850,7 +1647,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -1861,7 +1658,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -1872,13 +1669,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
@@ -1886,10 +1683,10 @@
         <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>84</v>
       </c>
@@ -1900,7 +1697,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
@@ -1911,7 +1708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>90</v>
       </c>
@@ -1922,7 +1719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>93</v>
       </c>
@@ -1933,7 +1730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>96</v>
       </c>
@@ -1941,17 +1738,17 @@
         <v>97</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>99</v>
       </c>
@@ -1962,7 +1759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>102</v>
       </c>
@@ -1973,7 +1770,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>105</v>
       </c>
@@ -1984,7 +1781,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>108</v>
       </c>
@@ -1995,7 +1792,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>111</v>
       </c>
@@ -2006,7 +1803,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>114</v>
       </c>
@@ -2017,7 +1814,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>117</v>
       </c>
@@ -2028,7 +1825,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>120</v>
       </c>
@@ -2039,7 +1836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>123</v>
       </c>
@@ -2050,7 +1847,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>126</v>
       </c>
@@ -2061,7 +1858,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>129</v>
       </c>
@@ -2072,7 +1869,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>132</v>
       </c>
@@ -2083,7 +1880,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>135</v>
       </c>
@@ -2094,7 +1891,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>138</v>
       </c>
@@ -2105,7 +1902,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>141</v>
       </c>
@@ -2116,7 +1913,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>144</v>
       </c>
@@ -2127,7 +1924,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>145</v>
       </c>
@@ -2138,7 +1935,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>148</v>
       </c>
@@ -2149,7 +1946,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>151</v>
       </c>
@@ -2160,7 +1957,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>154</v>
       </c>
@@ -2171,7 +1968,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>157</v>
       </c>
@@ -2182,7 +1979,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>160</v>
       </c>
@@ -2193,7 +1990,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>163</v>
       </c>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3126E073-D282-4729-B45D-7036032B3434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -634,22 +635,22 @@
     <t>TESTE</t>
   </si>
   <si>
-    <t>'?' + odkSurvey.getHashString('MADTRAIL')</t>
-  </si>
-  <si>
-    <t>MADTRAIL</t>
-  </si>
-  <si>
-    <t>MADtrail</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>MADtrial</t>
+  </si>
+  <si>
+    <t>MADTRIAL</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('MADTRIAL')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1012,24 +1013,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1040,24 +1041,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>20190521</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -1134,12 +1135,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="10"/>
     </row>
   </sheetData>
@@ -1148,22 +1149,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
@@ -1177,21 +1178,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>192</v>
       </c>
       <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
         <v>204</v>
       </c>
-      <c r="C2" t="s">
-        <v>205</v>
-      </c>
       <c r="D2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
         <v>202</v>
@@ -1211,25 +1212,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>182</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>184</v>
       </c>
@@ -1271,12 +1272,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>186</v>
       </c>
@@ -1284,24 +1285,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
         <v>190</v>
@@ -1310,17 +1311,17 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>201</v>
       </c>
@@ -1331,24 +1332,24 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
     </row>
   </sheetData>
@@ -1357,7 +1358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1365,14 +1366,14 @@
       <selection pane="bottomLeft" activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="56.1796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -1669,13 +1670,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>84</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>90</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>93</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>96</v>
       </c>
@@ -1741,14 +1742,14 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>99</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>102</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>105</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>108</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>111</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>114</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>117</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>120</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>123</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>126</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>129</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>132</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>135</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>138</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>141</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>144</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>145</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>148</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>151</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>154</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>157</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>160</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>163</v>
       </c>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3126E073-D282-4729-B45D-7036032B3434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCFEE40-DB4C-4273-8ACF-BE9D7BE9557C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="213">
   <si>
     <t>clause</t>
   </si>
@@ -629,22 +629,40 @@
     <t>&lt;p&gt;Você finalizou o questionário: &lt;/p&gt;&lt;p&gt;"{{display_field}}"&lt;/p&gt;&lt;hr&gt;</t>
   </si>
   <si>
-    <t>'?' + odkSurvey.getHashString('TESTE')</t>
-  </si>
-  <si>
-    <t>TESTE</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>MADtrial</t>
-  </si>
-  <si>
-    <t>MADTRIAL</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('MADTRIAL')</t>
+    <t>MADTRIAL_INC</t>
+  </si>
+  <si>
+    <t>MADTRIAL_FU_VIS</t>
+  </si>
+  <si>
+    <t>MADTRIAL_FU_PHONE</t>
+  </si>
+  <si>
+    <t>MADtrial - Inclusion</t>
+  </si>
+  <si>
+    <t>MADtrial - Inclusão</t>
+  </si>
+  <si>
+    <t>MADtrial Follow-up Phone</t>
+  </si>
+  <si>
+    <t>MADtrail Follow-up Telemovel</t>
+  </si>
+  <si>
+    <t>MADtrial Follow-up Visit</t>
+  </si>
+  <si>
+    <t>MADtrail Follow-up Visita</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('MADTRIAL_INC')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('MADTRIAL_FU_VIS')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('MADTRIAL_FU_PHONE')</t>
   </si>
 </sst>
 </file>
@@ -1150,16 +1168,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1183,13 +1201,13 @@
         <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
         <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,10 +1218,24 @@
         <v>202</v>
       </c>
       <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
         <v>203</v>
       </c>
-      <c r="D3" t="s">
-        <v>202</v>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1215,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,12 +1329,12 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
         <v>190</v>
@@ -1323,7 +1355,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
         <v>190</v>
@@ -1337,8 +1369,26 @@
         <v>189</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+    </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCFEE40-DB4C-4273-8ACF-BE9D7BE9557C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68702892-D794-4DCA-9E96-8C9287C27723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="214">
   <si>
     <t>clause</t>
   </si>
@@ -663,6 +663,9 @@
   </si>
   <si>
     <t>'?' + odkSurvey.getHashString('MADTRIAL_FU_PHONE')</t>
+  </si>
+  <si>
+    <t>Valor falta</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -752,6 +755,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,9 +1415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,8 +1478,8 @@
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>199</v>
+      <c r="C5" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,8 +1489,8 @@
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>199</v>
+      <c r="C6" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
